--- a/documentation/Planning_game_NielsGareth.xlsx
+++ b/documentation/Planning_game_NielsGareth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niels\Documents\project\periode 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drives\ROCMN\OneDrive - ROC Midden Nederland\prjcts\HTML\projGamesSite\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65A6CA8F-19BB-40FB-89A5-8665F17A79B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="6_{CE51BD82-6892-4A57-89E8-08703234C9E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{67783F5E-BA7B-431A-8911-1C27F041D962}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectplanning per dag" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Fase</t>
   </si>
@@ -259,6 +259,33 @@
   <si>
     <t>planning</t>
   </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Moet uitgebrijder, website werkzaamheden.</t>
+  </si>
+  <si>
+    <t>denk header footer enz.</t>
+  </si>
+  <si>
+    <t>plan opleveringen</t>
+  </si>
+  <si>
+    <t>header maken</t>
+  </si>
+  <si>
+    <t>footer maken</t>
+  </si>
+  <si>
+    <t>Game oplevering</t>
+  </si>
+  <si>
+    <t>Niels &amp; Gareth</t>
+  </si>
+  <si>
+    <t>bijde</t>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -607,23 +634,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -636,10 +648,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -648,24 +675,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -677,7 +708,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -689,88 +720,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -862,7 +818,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -883,28 +839,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -987,27 +937,21 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -1020,34 +964,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,133 +994,145 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,9 +1141,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1215,43 +1162,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Goed" xfId="2" builtinId="26"/>
@@ -1619,11 +1539,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
@@ -1639,7 +1559,7 @@
     <col min="59" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="19.95" customHeight="1">
+    <row r="1" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="110" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1582,7 @@
       <c r="R1" s="110"/>
       <c r="S1" s="110"/>
     </row>
-    <row r="2" spans="1:55" s="19" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:55" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="110"/>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
@@ -1682,10 +1602,10 @@
       <c r="Q2" s="110"/>
       <c r="R2" s="110"/>
       <c r="S2" s="110"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-    </row>
-    <row r="3" spans="1:55" s="19" customFormat="1" ht="54.6" customHeight="1" thickBot="1">
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="1:55" s="17" customFormat="1" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="110"/>
       <c r="B3" s="110"/>
       <c r="C3" s="110"/>
@@ -1705,91 +1625,91 @@
       <c r="Q3" s="110"/>
       <c r="R3" s="110"/>
       <c r="S3" s="110"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-    </row>
-    <row r="4" spans="1:55" s="19" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="57" t="s">
+      <c r="T3" s="16"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:55" s="17" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="63">
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58">
         <v>1</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="14">
+      <c r="L4" s="55"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="12">
         <v>2</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="63">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="58">
         <v>3</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="14">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="12">
         <v>4</v>
       </c>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="63">
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="58">
         <v>5</v>
       </c>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="14">
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="12">
         <v>6</v>
       </c>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="63">
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="58">
         <v>7</v>
       </c>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="14">
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="12">
         <v>8</v>
       </c>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="63">
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="58">
         <v>9</v>
       </c>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="60"/>
-    </row>
-    <row r="5" spans="1:55" s="2" customFormat="1" ht="19.95" customHeight="1" thickBot="1">
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="56"/>
+    </row>
+    <row r="5" spans="1:55" s="2" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1799,13 +1719,13 @@
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1818,7 +1738,7 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <v>2</v>
       </c>
       <c r="M5" s="4">
@@ -1830,10 +1750,10 @@
       <c r="O5" s="5">
         <v>5</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <v>1</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>2</v>
       </c>
       <c r="R5" s="4">
@@ -1842,13 +1762,13 @@
       <c r="S5" s="4">
         <v>4</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="13">
         <v>5</v>
       </c>
       <c r="U5" s="3">
         <v>1</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="11">
         <v>2</v>
       </c>
       <c r="W5" s="4">
@@ -1860,10 +1780,10 @@
       <c r="Y5" s="5">
         <v>5</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z5" s="11">
         <v>1</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AA5" s="11">
         <v>2</v>
       </c>
       <c r="AB5" s="4">
@@ -1872,13 +1792,13 @@
       <c r="AC5" s="4">
         <v>4</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AD5" s="13">
         <v>5</v>
       </c>
       <c r="AE5" s="3">
         <v>1</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AF5" s="11">
         <v>2</v>
       </c>
       <c r="AG5" s="4">
@@ -1890,10 +1810,10 @@
       <c r="AI5" s="5">
         <v>5</v>
       </c>
-      <c r="AJ5" s="13">
+      <c r="AJ5" s="11">
         <v>1</v>
       </c>
-      <c r="AK5" s="13">
+      <c r="AK5" s="11">
         <v>2</v>
       </c>
       <c r="AL5" s="4">
@@ -1902,13 +1822,13 @@
       <c r="AM5" s="4">
         <v>4</v>
       </c>
-      <c r="AN5" s="15">
+      <c r="AN5" s="13">
         <v>5</v>
       </c>
       <c r="AO5" s="3">
         <v>1</v>
       </c>
-      <c r="AP5" s="13">
+      <c r="AP5" s="11">
         <v>2</v>
       </c>
       <c r="AQ5" s="4">
@@ -1920,10 +1840,10 @@
       <c r="AS5" s="5">
         <v>5</v>
       </c>
-      <c r="AT5" s="13">
+      <c r="AT5" s="11">
         <v>1</v>
       </c>
-      <c r="AU5" s="13">
+      <c r="AU5" s="11">
         <v>2</v>
       </c>
       <c r="AV5" s="4">
@@ -1932,13 +1852,13 @@
       <c r="AW5" s="4">
         <v>4</v>
       </c>
-      <c r="AX5" s="15">
+      <c r="AX5" s="13">
         <v>5</v>
       </c>
       <c r="AY5" s="3">
         <v>1</v>
       </c>
-      <c r="AZ5" s="13">
+      <c r="AZ5" s="11">
         <v>2</v>
       </c>
       <c r="BA5" s="4">
@@ -1951,158 +1871,158 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B6" s="47">
+    <row r="6" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45">
         <v>1</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="79">
+      <c r="E6" s="63"/>
+      <c r="F6" s="68">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="112"/>
       <c r="I6" s="112"/>
       <c r="J6" s="113"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="128"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="99"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="104"/>
+      <c r="P6" s="91"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="61"/>
+      <c r="U6" s="57"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="61"/>
+      <c r="Z6" s="57"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="64"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="59"/>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="9"/>
-      <c r="AJ6" s="61"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="64"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="59"/>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="9"/>
-      <c r="AT6" s="61"/>
+      <c r="AT6" s="57"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="64"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="59"/>
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
       <c r="BB6" s="8"/>
       <c r="BC6" s="9"/>
     </row>
-    <row r="7" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="79">
+      <c r="E7" s="63"/>
+      <c r="F7" s="68">
         <v>3.125E-2</v>
       </c>
-      <c r="G7" s="84"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="114"/>
       <c r="I7" s="114"/>
       <c r="J7" s="115"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="102"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="89"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="57"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="61"/>
+      <c r="Z7" s="57"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="64"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="59"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="61"/>
+      <c r="AJ7" s="57"/>
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="64"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="59"/>
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="6"/>
       <c r="AS7" s="10"/>
-      <c r="AT7" s="61"/>
+      <c r="AT7" s="57"/>
       <c r="AU7" s="6"/>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="64"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="59"/>
       <c r="AZ7" s="6"/>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6"/>
       <c r="BC7" s="10"/>
     </row>
-    <row r="8" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B8" s="49" t="s">
+    <row r="8" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="81">
+      <c r="E8" s="64"/>
+      <c r="F8" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="114"/>
       <c r="I8" s="114"/>
       <c r="J8" s="115"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="127"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="98"/>
       <c r="N8" s="6"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="65"/>
+      <c r="P8" s="60"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -2116,8 +2036,8 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="65"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="60"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
@@ -2126,8 +2046,8 @@
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="65"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="60"/>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
@@ -2136,38 +2056,38 @@
       <c r="AU8" s="6"/>
       <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="65"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="60"/>
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6"/>
       <c r="BC8" s="10"/>
     </row>
-    <row r="9" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="81">
+      <c r="E9" s="64"/>
+      <c r="F9" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G9" s="84"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
       <c r="J9" s="115"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="10"/>
@@ -2180,8 +2100,8 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="65"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="60"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
@@ -2190,8 +2110,8 @@
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="65"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="60"/>
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
@@ -2200,38 +2120,38 @@
       <c r="AU9" s="6"/>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="65"/>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="60"/>
       <c r="AZ9" s="6"/>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6"/>
       <c r="BC9" s="10"/>
     </row>
-    <row r="10" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="81">
+      <c r="E10" s="64"/>
+      <c r="F10" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="114"/>
       <c r="I10" s="114"/>
       <c r="J10" s="115"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="135"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="104"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="21"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="10"/>
@@ -2244,8 +2164,8 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="65"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="60"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
@@ -2254,8 +2174,8 @@
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
-      <c r="AN10" s="68"/>
-      <c r="AO10" s="65"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="60"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="6"/>
@@ -2264,41 +2184,41 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="6"/>
       <c r="AW10" s="6"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="65"/>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="60"/>
       <c r="AZ10" s="6"/>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6"/>
       <c r="BC10" s="10"/>
     </row>
-    <row r="11" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="81">
+      <c r="E11" s="64"/>
+      <c r="F11" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G11" s="82"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="114"/>
       <c r="I11" s="114"/>
       <c r="J11" s="115"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="136"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="105"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="65"/>
+      <c r="P11" s="60"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="130"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="101"/>
       <c r="U11" s="7"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -2308,8 +2228,8 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="65"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="60"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
@@ -2318,8 +2238,8 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="65"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="60"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="6"/>
@@ -2328,41 +2248,41 @@
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="65"/>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="60"/>
       <c r="AZ11" s="6"/>
       <c r="BA11" s="6"/>
       <c r="BB11" s="6"/>
       <c r="BC11" s="10"/>
     </row>
-    <row r="12" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="81">
+      <c r="E12" s="64"/>
+      <c r="F12" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="136"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="105"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="65"/>
+      <c r="P12" s="60"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="129"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="100"/>
       <c r="U12" s="7"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -2372,8 +2292,8 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="65"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="60"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
@@ -2382,8 +2302,8 @@
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
-      <c r="AN12" s="68"/>
-      <c r="AO12" s="65"/>
+      <c r="AN12" s="62"/>
+      <c r="AO12" s="60"/>
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
@@ -2392,43 +2312,43 @@
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="65"/>
+      <c r="AX12" s="62"/>
+      <c r="AY12" s="60"/>
       <c r="AZ12" s="6"/>
       <c r="BA12" s="6"/>
       <c r="BB12" s="6"/>
       <c r="BC12" s="10"/>
     </row>
-    <row r="13" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B13" s="49" t="s">
+    <row r="13" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="81">
+      <c r="E13" s="64"/>
+      <c r="F13" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="105"/>
+      <c r="P13" s="92"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="21"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="19"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="10"/>
@@ -2436,8 +2356,8 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="65"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="60"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
@@ -2446,8 +2366,8 @@
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="65"/>
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="60"/>
       <c r="AP13" s="6"/>
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6"/>
@@ -2456,103 +2376,103 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="65"/>
+      <c r="AX13" s="62"/>
+      <c r="AY13" s="60"/>
       <c r="AZ13" s="6"/>
       <c r="BA13" s="6"/>
       <c r="BB13" s="6"/>
       <c r="BC13" s="10"/>
     </row>
-    <row r="14" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B14" s="85">
-        <v>3</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="97"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="97"/>
-      <c r="AY14" s="93"/>
-      <c r="AZ14" s="94"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="94"/>
-      <c r="BC14" s="95"/>
-    </row>
-    <row r="15" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B15" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="50" t="s">
+    <row r="14" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="47">
+        <v>2.7</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="81">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="65"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="10"/>
+    </row>
+    <row r="15" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="47">
+        <v>2.8</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="135"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="99"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="87"/>
       <c r="S15" s="6"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="17"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="10"/>
@@ -2560,8 +2480,8 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="65"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="60"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
@@ -2570,8 +2490,8 @@
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="65"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="60"/>
       <c r="AP15" s="6"/>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="6"/>
@@ -2580,112 +2500,112 @@
       <c r="AU15" s="6"/>
       <c r="AV15" s="6"/>
       <c r="AW15" s="6"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="65"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="60"/>
       <c r="AZ15" s="6"/>
       <c r="BA15" s="6"/>
       <c r="BB15" s="6"/>
       <c r="BC15" s="10"/>
     </row>
-    <row r="16" spans="1:55" ht="19.95" customHeight="1">
-      <c r="B16" s="85">
+    <row r="16" spans="1:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="74">
         <v>3</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="94"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="94"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="94"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="96"/>
-      <c r="AU16" s="94"/>
-      <c r="AV16" s="94"/>
-      <c r="AW16" s="94"/>
-      <c r="AX16" s="97"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="94"/>
-      <c r="BA16" s="94"/>
-      <c r="BB16" s="94"/>
-      <c r="BC16" s="95"/>
-    </row>
-    <row r="17" spans="2:55" ht="19.95" customHeight="1">
-      <c r="B17" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="81">
+      <c r="C16" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="83"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="83"/>
+      <c r="AN16" s="86"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="83"/>
+      <c r="AR16" s="83"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="85"/>
+      <c r="AU16" s="83"/>
+      <c r="AV16" s="83"/>
+      <c r="AW16" s="83"/>
+      <c r="AX16" s="86"/>
+      <c r="AY16" s="82"/>
+      <c r="AZ16" s="83"/>
+      <c r="BA16" s="83"/>
+      <c r="BB16" s="83"/>
+      <c r="BC16" s="84"/>
+    </row>
+    <row r="17" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="135"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="87"/>
       <c r="S17" s="6"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="65"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="60"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
@@ -2694,8 +2614,8 @@
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="6"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="65"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="60"/>
       <c r="AP17" s="6"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
@@ -2704,111 +2624,112 @@
       <c r="AU17" s="6"/>
       <c r="AV17" s="6"/>
       <c r="AW17" s="6"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="65"/>
+      <c r="AX17" s="62"/>
+      <c r="AY17" s="60"/>
       <c r="AZ17" s="6"/>
       <c r="BA17" s="6"/>
       <c r="BB17" s="6"/>
       <c r="BC17" s="10"/>
     </row>
-    <row r="18" spans="2:55" ht="19.95" customHeight="1">
-      <c r="B18" s="85">
+    <row r="18" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="74">
         <v>3</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="96"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="97"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="94"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="96"/>
-      <c r="AU18" s="94"/>
-      <c r="AV18" s="94"/>
-      <c r="AW18" s="94"/>
-      <c r="AX18" s="97"/>
-      <c r="AY18" s="93"/>
-      <c r="AZ18" s="94"/>
-      <c r="BA18" s="94"/>
-      <c r="BB18" s="94"/>
-      <c r="BC18" s="95"/>
-    </row>
-    <row r="19" spans="2:55" ht="19.95" customHeight="1">
-      <c r="B19" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="50" t="s">
+      <c r="C18" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="85"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="86"/>
+      <c r="AY18" s="82"/>
+      <c r="AZ18" s="83"/>
+      <c r="BA18" s="83"/>
+      <c r="BB18" s="83"/>
+      <c r="BC18" s="84"/>
+    </row>
+    <row r="19" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="81">
+      <c r="E19" s="64"/>
+      <c r="F19" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="135"/>
+      <c r="N19" s="104"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="65"/>
+      <c r="P19" s="60"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="10"/>
       <c r="U19" s="7"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="133"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="134"/>
-      <c r="AE19" s="65"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="60"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
@@ -2817,8 +2738,8 @@
       <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
       <c r="AM19" s="6"/>
-      <c r="AN19" s="68"/>
-      <c r="AO19" s="65"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="60"/>
       <c r="AP19" s="6"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
@@ -2827,100 +2748,111 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="65"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="60"/>
       <c r="AZ19" s="6"/>
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="10"/>
     </row>
-    <row r="20" spans="2:55" ht="19.95" customHeight="1">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="7"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="10"/>
-    </row>
-    <row r="21" spans="2:55" ht="19.95" customHeight="1">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="65"/>
+    <row r="20" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="74">
+        <v>3</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="83"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="83"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="82"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="83"/>
+      <c r="AR20" s="83"/>
+      <c r="AS20" s="84"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="83"/>
+      <c r="AX20" s="86"/>
+      <c r="AY20" s="82"/>
+      <c r="AZ20" s="83"/>
+      <c r="BA20" s="83"/>
+      <c r="BB20" s="83"/>
+      <c r="BC20" s="84"/>
+    </row>
+    <row r="21" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="70">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="N21" s="104"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="65"/>
+      <c r="P21" s="60"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="10"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="10"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="65"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="125"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="126"/>
+      <c r="AE21" s="60"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
@@ -2929,8 +2861,8 @@
       <c r="AK21" s="6"/>
       <c r="AL21" s="6"/>
       <c r="AM21" s="6"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="65"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="60"/>
       <c r="AP21" s="6"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
@@ -2939,137 +2871,155 @@
       <c r="AU21" s="6"/>
       <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="65"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="60"/>
       <c r="AZ21" s="6"/>
       <c r="BA21" s="6"/>
       <c r="BB21" s="6"/>
       <c r="BC21" s="10"/>
     </row>
-    <row r="22" spans="2:55" ht="19.95" customHeight="1" thickBot="1">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="74"/>
+    <row r="22" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="47">
+        <v>4</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="70">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G22" s="65"/>
       <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="109"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="11"/>
-      <c r="BB22" s="11"/>
-      <c r="BC22" s="62"/>
-    </row>
-    <row r="24" spans="2:55" s="20" customFormat="1" ht="22.2" customHeight="1">
-      <c r="B24" s="16" t="s">
+      <c r="K22" s="60"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="7"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="10"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="62"/>
+      <c r="AY22" s="60"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="10"/>
+    </row>
+    <row r="24" spans="2:55" s="18" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:55" s="20" customFormat="1" ht="22.2" customHeight="1">
-      <c r="B25" s="17"/>
-      <c r="C25" s="42" t="s">
+    <row r="25" spans="2:55" s="18" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="2:55" s="20" customFormat="1" ht="22.2" customHeight="1">
-      <c r="B26" s="21"/>
-      <c r="C26" s="42" t="s">
+      <c r="D25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:55" s="18" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="2:55" s="20" customFormat="1" ht="22.2" customHeight="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="42"/>
-    </row>
-    <row r="28" spans="2:55" s="20" customFormat="1" ht="22.2" customHeight="1">
-      <c r="B28" s="39"/>
-      <c r="C28" s="43"/>
-    </row>
-    <row r="29" spans="2:55" ht="19.95" customHeight="1">
-      <c r="B29" s="41"/>
-      <c r="C29" s="44"/>
-    </row>
-    <row r="30" spans="2:55" ht="19.95" customHeight="1">
-      <c r="B30" s="40"/>
-      <c r="C30" s="44"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="2:55" ht="19.95" customHeight="1">
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="2:55" ht="19.95" customHeight="1">
+      <c r="D26" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:55" s="18" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:55" s="18" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="37"/>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39"/>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="38"/>
+      <c r="C30" s="42"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="2:55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="2:7" ht="19.95" customHeight="1">
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="2:7" ht="19.95" customHeight="1">
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="2:7" ht="19.95" customHeight="1">
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="23"/>
+      <c r="G35" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H22:J22"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:S3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -3078,9 +3028,6 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="K6">
     <cfRule type="colorScale" priority="18">
@@ -3300,1132 +3247,1132 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="25" customWidth="1"/>
-    <col min="2" max="9" width="8.88671875" style="25"/>
-    <col min="10" max="10" width="2.6640625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="0.33203125" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="2.109375" style="23" customWidth="1"/>
+    <col min="2" max="9" width="8.88671875" style="23"/>
+    <col min="10" max="10" width="2.6640625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="0.33203125" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="10.199999999999999" customHeight="1"/>
-    <row r="2" spans="2:19" ht="24.6" customHeight="1">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:19" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="L2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="L2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-    </row>
-    <row r="3" spans="2:19" ht="14.4" customHeight="1">
-      <c r="B3" s="120" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="119" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="119"/>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="119"/>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="119"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="119"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="119"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-    </row>
-    <row r="21" spans="2:19" ht="13.95" customHeight="1">
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-    </row>
-    <row r="22" spans="2:19" ht="24.6" customHeight="1">
-      <c r="B22" s="35" t="s">
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+    </row>
+    <row r="21" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="2:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="38" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-    </row>
-    <row r="23" spans="2:19">
-      <c r="B23" s="121" t="s">
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="122" t="s">
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-    </row>
-    <row r="24" spans="2:19">
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-    </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-    </row>
-    <row r="30" spans="2:19">
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-    </row>
-    <row r="33" spans="2:19">
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-    </row>
-    <row r="34" spans="2:19">
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-    </row>
-    <row r="35" spans="2:19">
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-    </row>
-    <row r="36" spans="2:19">
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-    </row>
-    <row r="37" spans="2:19">
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-    </row>
-    <row r="39" spans="2:19">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-    </row>
-    <row r="40" spans="2:19">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-    </row>
-    <row r="41" spans="2:19">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-    </row>
-    <row r="42" spans="2:19">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-    </row>
-    <row r="43" spans="2:19">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-    </row>
-    <row r="44" spans="2:19">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-    </row>
-    <row r="45" spans="2:19">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-    </row>
-    <row r="46" spans="2:19" ht="13.95" customHeight="1">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-    </row>
-    <row r="47" spans="2:19" ht="0.6" customHeight="1"/>
-    <row r="48" spans="2:19" ht="13.95" customHeight="1">
-      <c r="B48" s="24"/>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="117"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="123"/>
-      <c r="L49" s="123"/>
-      <c r="M49" s="123"/>
-      <c r="N49" s="123"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="123"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="123"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="123"/>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
-      <c r="L51" s="123"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="123"/>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="123"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="123"/>
-    </row>
-    <row r="53" spans="2:14" ht="28.95" customHeight="1"/>
-    <row r="54" spans="2:14" ht="15.6">
-      <c r="B54" s="27"/>
-    </row>
-    <row r="55" spans="2:14" ht="12.6" customHeight="1">
-      <c r="B55" s="117"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="118"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118"/>
-      <c r="M55" s="118"/>
-      <c r="N55" s="118"/>
-    </row>
-    <row r="56" spans="2:14" ht="14.4" customHeight="1">
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-    </row>
-    <row r="57" spans="2:14" ht="13.95" customHeight="1">
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="118"/>
-      <c r="N59" s="118"/>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-    </row>
-    <row r="62" spans="2:14">
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="118"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="118"/>
-      <c r="M62" s="118"/>
-      <c r="N62" s="118"/>
-    </row>
-    <row r="63" spans="2:14">
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="118"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="118"/>
-      <c r="I63" s="118"/>
-      <c r="J63" s="118"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="118"/>
-      <c r="M63" s="118"/>
-      <c r="N63" s="118"/>
-    </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="118"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="118"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="118"/>
-      <c r="M64" s="118"/>
-      <c r="N64" s="118"/>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="118"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="118"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="118"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="118"/>
-      <c r="L66" s="118"/>
-      <c r="M66" s="118"/>
-      <c r="N66" s="118"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="120"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="121"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="121"/>
+      <c r="S36" s="121"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+    </row>
+    <row r="46" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+    </row>
+    <row r="47" spans="2:19" ht="0.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="116"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="122"/>
+      <c r="N49" s="122"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+      <c r="M51" s="122"/>
+      <c r="N51" s="122"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+    </row>
+    <row r="53" spans="2:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="25"/>
+    </row>
+    <row r="55" spans="2:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="116"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="117"/>
+    </row>
+    <row r="56" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="117"/>
+    </row>
+    <row r="57" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="117"/>
+      <c r="M57" s="117"/>
+      <c r="N57" s="117"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="117"/>
+      <c r="L58" s="117"/>
+      <c r="M58" s="117"/>
+      <c r="N58" s="117"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="117"/>
+      <c r="M59" s="117"/>
+      <c r="N59" s="117"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="117"/>
+      <c r="M60" s="117"/>
+      <c r="N60" s="117"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
+      <c r="M61" s="117"/>
+      <c r="N61" s="117"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="117"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="117"/>
+      <c r="M62" s="117"/>
+      <c r="N62" s="117"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="117"/>
+      <c r="M63" s="117"/>
+      <c r="N63" s="117"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="117"/>
+      <c r="M64" s="117"/>
+      <c r="N64" s="117"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="117"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="117"/>
+      <c r="M65" s="117"/>
+      <c r="N65" s="117"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
+      <c r="M66" s="117"/>
+      <c r="N66" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4441,15 +4388,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100494B91F862530448A11C7EF3BF903DA4" ma:contentTypeVersion="5" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="912e0e9bdb0b076aa66961b54f15d330">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af1bc89b-f391-4675-acc8-29e5e5d4f740" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12ac7a865c7454e21a684c024d72ad66" ns2:_="">
     <xsd:import namespace="af1bc89b-f391-4675-acc8-29e5e5d4f740"/>
@@ -4601,21 +4539,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77FFC48A-9FC6-428E-83B9-8E17F32F30EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B851CBC-9033-44F7-81DC-0097B67F138F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4633,18 +4572,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E21D9B53-710E-4291-8ACA-8ED7BC4AF4B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="af1bc89b-f391-4675-acc8-29e5e5d4f740"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="af1bc89b-f391-4675-acc8-29e5e5d4f740"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77FFC48A-9FC6-428E-83B9-8E17F32F30EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>